--- a/biology/Zoologie/Chthonius_lanzai/Chthonius_lanzai.xlsx
+++ b/biology/Zoologie/Chthonius_lanzai/Chthonius_lanzai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chthonius lanzai est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Toscane en Italie[1],[2]. Elle se rencontre dans la grotte Tana dei Pipistrelli à Villa Collemandina et dans la grotte grotta Buca di Nadia à Pistoia.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Toscane en Italie,. Elle se rencontre dans la grotte Tana dei Pipistrelli à Villa Collemandina et dans la grotte grotta Buca di Nadia à Pistoia.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Chthonius lanzai lanzai Caporiacco, 1947 grotte à Villa Collemandina
 Chthonius lanzai vannii Callaini, 1986 grotte à Pistoia</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Benedetto Lanza[2] et la sous-espèce en l'honneur de Stefano Vanni (1951-)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Benedetto Lanza et la sous-espèce en l'honneur de Stefano Vanni (1951-).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Caporiacco, 1947 : Alcuni Arachnidi cavernicoli di Toscana. Commentationes Pontificiae Academia Scientarum, vol. 11, p. 251-258.
 Callaini, 1986 : Note sugli pseudoscorpioni raccolti in alcune grotte della Toscana settentrionale (Arachnida) (Notulae Chernetologicae 25). Redia, vol. 69, p. 523-542.</t>
